--- a/SplitExcelApp/templates/temp.xlsx
+++ b/SplitExcelApp/templates/temp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phuon\Source\Repos\SplitExcelApp\SplitExcelApp\bin\Debug\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source code\Personal\GitHub\SplitExcel\SplitExcelApp\bin\Debug\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -861,7 +861,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -875,13 +895,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -901,12 +928,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -927,7 +964,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,42 +976,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1263,7 +1263,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1354,18 +1354,18 @@
       <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="13"/>
       <c r="O3" s="7"/>
       <c r="P3" s="1"/>
@@ -1382,39 +1382,39 @@
     </row>
     <row r="4" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="53" t="s">
+      <c r="I4" s="66"/>
+      <c r="J4" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="47" t="s">
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="48"/>
-      <c r="P4" s="44" t="s">
+      <c r="O4" s="54"/>
+      <c r="P4" s="50" t="s">
         <v>18</v>
       </c>
       <c r="Q4" s="1"/>
@@ -1430,35 +1430,35 @@
     </row>
     <row r="5" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="52" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="50" t="s">
+      <c r="L5" s="68"/>
+      <c r="M5" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="42" t="s">
+      <c r="N5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="45"/>
+      <c r="P5" s="51"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1472,25 +1472,25 @@
     </row>
     <row r="6" spans="1:26" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
       <c r="K6" s="14" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="46"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="52"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1505,10 +1505,10 @@
     <row r="7" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="15"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="8" spans="1:26" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="22">
-        <f>SUM(D7:$D7)</f>
+        <f ca="1">SUM(INDIRECT("D7"):$D7)</f>
         <v>0</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22">
-        <f t="shared" ref="G8:O8" si="0">SUM(G7:G7)</f>
+        <f ca="1">SUM(INDIRECT("G7"):$G7)</f>
         <v>0</v>
       </c>
       <c r="H8" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G8:O8" si="0">SUM(H7:H7)</f>
         <v>0</v>
       </c>
       <c r="I8" s="22">
@@ -1649,30 +1649,30 @@
     <row r="11" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="68" t="s">
+      <c r="F11" s="89"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="65" t="s">
+      <c r="I11" s="54"/>
+      <c r="J11" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="66" t="s">
+      <c r="K11" s="54"/>
+      <c r="L11" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="48"/>
-      <c r="N11" s="67" t="s">
+      <c r="M11" s="54"/>
+      <c r="N11" s="82" t="s">
         <v>7</v>
       </c>
       <c r="O11" s="7"/>
@@ -1691,12 +1691,12 @@
     <row r="12" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="78" t="s">
+      <c r="C12" s="85"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="79"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="31" t="s">
         <v>11</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="M12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="46"/>
+      <c r="N12" s="52"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1735,18 +1735,18 @@
     <row r="13" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="71"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="35">
-        <f>$D8</f>
+        <f ca="1">$D8</f>
         <v>0</v>
       </c>
-      <c r="E13" s="76">
-        <f>D13+I13</f>
+      <c r="E13" s="90">
+        <f ca="1">D13+I13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="77"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="36">
-        <f>G8</f>
+        <f ca="1">G8</f>
         <v>0</v>
       </c>
       <c r="H13" s="37"/>

--- a/SplitExcelApp/templates/temp.xlsx
+++ b/SplitExcelApp/templates/temp.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source code\Personal\GitHub\SplitExcel\SplitExcelApp\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Spring Boot\SplitExcel\SplitExcelApp\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="tempSheet" sheetId="7" r:id="rId1"/>
@@ -287,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -505,28 +505,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -578,17 +556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -597,45 +564,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -828,21 +756,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -900,12 +813,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -936,46 +877,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1006,16 +908,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -1033,46 +935,34 @@
     <xf numFmtId="165" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="33" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1090,120 +980,90 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1215,48 +1075,46 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1266,17 +1124,74 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1561,9 +1476,9 @@
   </sheetPr>
   <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13:F13"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1655,17 +1570,17 @@
         <v>2</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="112" t="s">
+      <c r="E3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="13"/>
       <c r="O3" s="6"/>
       <c r="P3" s="1"/>
@@ -1682,39 +1597,39 @@
     </row>
     <row r="4" spans="1:26" ht="20.25" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="94" t="s">
+      <c r="G4" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="124" t="s">
+      <c r="H4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="121"/>
-      <c r="J4" s="106" t="s">
+      <c r="I4" s="86"/>
+      <c r="J4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="132" t="s">
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="86"/>
-      <c r="P4" s="125" t="s">
+      <c r="O4" s="73"/>
+      <c r="P4" s="69" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="1"/>
@@ -1730,35 +1645,35 @@
     </row>
     <row r="5" spans="1:26" ht="20.25" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="119" t="s">
+      <c r="B5" s="92"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="119" t="s">
+      <c r="I5" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="117" t="s">
+      <c r="J5" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="122" t="s">
+      <c r="K5" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="123"/>
-      <c r="M5" s="117" t="s">
+      <c r="L5" s="88"/>
+      <c r="M5" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="115" t="s">
+      <c r="N5" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="115" t="s">
+      <c r="O5" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="126"/>
+      <c r="P5" s="70"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1772,25 +1687,25 @@
     </row>
     <row r="6" spans="1:26" ht="31.5" customHeight="1" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="14" t="s">
+      <c r="B6" s="92"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="118"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="70"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1804,21 +1719,21 @@
     </row>
     <row r="7" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="24"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="136"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -1832,53 +1747,53 @@
     </row>
     <row r="8" spans="1:26" ht="26.25" customHeight="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="25">
+      <c r="C8" s="81"/>
+      <c r="D8" s="14">
         <f ca="1">SUM(INDIRECT("D7"):$D7)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25">
+      <c r="E8" s="138"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14">
         <f ca="1">SUM(INDIRECT("G7"):$G7)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="14">
         <f t="shared" ref="H8:O8" si="0">SUM(H7)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="27"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1891,21 +1806,21 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="33"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1922,17 +1837,17 @@
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="36"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="6"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1949,30 +1864,30 @@
     <row r="11" spans="1:26" ht="21.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="131" t="s">
+      <c r="F11" s="101"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="86"/>
-      <c r="J11" s="128" t="s">
+      <c r="I11" s="73"/>
+      <c r="J11" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="86"/>
-      <c r="L11" s="129" t="s">
+      <c r="K11" s="73"/>
+      <c r="L11" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="86"/>
-      <c r="N11" s="130" t="s">
+      <c r="M11" s="73"/>
+      <c r="N11" s="75" t="s">
         <v>29</v>
       </c>
       <c r="O11" s="6"/>
@@ -1991,34 +1906,34 @@
     <row r="12" spans="1:26" ht="47.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="89" t="s">
+      <c r="C12" s="94"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="37" t="s">
+      <c r="F12" s="105"/>
+      <c r="G12" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="L12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="M12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="127"/>
+      <c r="N12" s="71"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2035,42 +1950,42 @@
     <row r="13" spans="1:26" ht="37.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="40">
+      <c r="C13" s="95"/>
+      <c r="D13" s="27">
         <f ca="1">$D8</f>
         <v>0</v>
       </c>
-      <c r="E13" s="87">
+      <c r="E13" s="102">
         <f ca="1">D13+I13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="41">
+      <c r="F13" s="103"/>
+      <c r="G13" s="28">
         <f ca="1">G8</f>
         <v>0</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="41">
+      <c r="H13" s="29"/>
+      <c r="I13" s="28">
         <f>I8-H13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="28">
         <f>M8</f>
         <v>0</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="28">
         <f>J8</f>
         <v>0</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="28">
         <f>N8</f>
         <v>0</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="28">
         <f>O8</f>
         <v>0</v>
       </c>
-      <c r="N13" s="43">
+      <c r="N13" s="30">
         <f>H8</f>
         <v>0</v>
       </c>
@@ -28913,13 +28828,17 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="E3:M3"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="M5:M6"/>
@@ -28930,17 +28849,13 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="E4:E6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -28955,481 +28870,481 @@
   </sheetPr>
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="44" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="17" style="44" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="44" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="44" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="44" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="44" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="44" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="44" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="44" customWidth="1"/>
-    <col min="15" max="18" width="4.42578125" style="44" customWidth="1"/>
-    <col min="19" max="21" width="11.42578125" style="44" customWidth="1"/>
-    <col min="22" max="23" width="13.28515625" style="44" customWidth="1"/>
-    <col min="24" max="26" width="15.140625" style="44" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="44"/>
+    <col min="1" max="1" width="4.7109375" style="31" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="17" style="31" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="31" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="31" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="31" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="31" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="31" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="31" customWidth="1"/>
+    <col min="15" max="18" width="4.42578125" style="31" customWidth="1"/>
+    <col min="19" max="21" width="11.42578125" style="31" customWidth="1"/>
+    <col min="22" max="23" width="13.28515625" style="31" customWidth="1"/>
+    <col min="24" max="26" width="15.140625" style="31" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="149" t="s">
+      <c r="D2" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="138" t="s">
+      <c r="E2" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="134"/>
-      <c r="G2" s="148" t="s">
+      <c r="F2" s="118"/>
+      <c r="G2" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="137" t="s">
+      <c r="H2" s="118"/>
+      <c r="I2" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="134"/>
-      <c r="K2" s="133" t="s">
+      <c r="J2" s="118"/>
+      <c r="K2" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="134"/>
-      <c r="M2" s="135" t="s">
+      <c r="L2" s="118"/>
+      <c r="M2" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A3" s="147"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="48" t="s">
+      <c r="A3" s="116"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="136"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
     </row>
     <row r="4" spans="1:26" ht="24" customHeight="1" thickBot="1">
-      <c r="A4" s="51">
+      <c r="A4" s="38">
         <v>1</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
     </row>
     <row r="5" spans="1:26" ht="24" customHeight="1" thickBot="1">
-      <c r="A5" s="56">
+      <c r="A5" s="38">
         <v>2</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
     </row>
     <row r="6" spans="1:26" ht="24" customHeight="1" thickBot="1">
-      <c r="A6" s="56">
+      <c r="A6" s="43">
         <v>3</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
     </row>
     <row r="7" spans="1:26" ht="24" customHeight="1" thickBot="1">
-      <c r="A7" s="65">
+      <c r="A7" s="48">
         <v>4</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
     </row>
     <row r="8" spans="1:26" ht="24" customHeight="1" thickBot="1">
-      <c r="A8" s="51">
+      <c r="A8" s="38">
         <v>5</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
     </row>
     <row r="9" spans="1:26" ht="24" customHeight="1" thickBot="1">
-      <c r="A9" s="72">
+      <c r="A9" s="55">
         <v>6</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
     </row>
     <row r="10" spans="1:26" ht="24" customHeight="1" thickBot="1">
-      <c r="A10" s="72">
+      <c r="A10" s="55">
         <v>7</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
     </row>
     <row r="11" spans="1:26" ht="24" customHeight="1" thickBot="1">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="140"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="76">
+      <c r="B11" s="125"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="59">
         <f ca="1">SUM(INDIRECT("D4"):$D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="59">
         <f ca="1">SUM(INDIRECT("E4"):$E10)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="59">
         <f ca="1">SUM(INDIRECT("F4"):$F10)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="77">
+      <c r="G11" s="60">
         <f ca="1">SUM(INDIRECT("G4"):$G10)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="59">
         <f ca="1">SUM(INDIRECT("H4"):$H10)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="59">
         <f ca="1">SUM(INDIRECT("I4"):$I10)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="76">
+      <c r="J11" s="59">
         <f ca="1">SUM(INDIRECT("J4"):$J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="76">
+      <c r="K11" s="59">
         <f ca="1">SUM(INDIRECT("K4"):$K10)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="76">
+      <c r="L11" s="59">
         <f ca="1">SUM(INDIRECT("L4"):$L10)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="78">
+      <c r="M11" s="61">
         <f ca="1">SUM(INDIRECT("M4"):$M10)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
     </row>
     <row r="12" spans="1:26" ht="24" customHeight="1" thickBot="1">
-      <c r="A12" s="79"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.42013889999999998" bottom="0.27986109999999997" header="0" footer="0"/>

--- a/SplitExcelApp/templates/temp.xlsx
+++ b/SplitExcelApp/templates/temp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Spring Boot\SplitExcel\SplitExcelApp\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Spring Boot\SplitExcel\SplitExcelApp\bin\Debug\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>LỚP:5B2</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>CHỦ NHẬT- TH</t>
-  </si>
-  <si>
-    <t>HỌC THỰC 7 BUỔI, THU HP 7 BUỔI, QUYẾT TOÁN HẾT 7 BUỔI.</t>
   </si>
   <si>
     <t>STT</t>
@@ -1028,11 +1025,40 @@
     <xf numFmtId="165" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1043,12 +1069,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1091,6 +1119,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1156,40 +1187,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1478,7 +1475,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1570,17 +1567,15 @@
         <v>2</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
       <c r="N3" s="13"/>
       <c r="O3" s="6"/>
       <c r="P3" s="1"/>
@@ -1597,40 +1592,40 @@
     </row>
     <row r="4" spans="1:26" ht="20.25" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="D4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="E4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="F4" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="G4" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="108" t="s">
+      <c r="H4" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="I4" s="97"/>
+      <c r="J4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="84" t="s">
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="78" t="s">
+      <c r="O4" s="82"/>
+      <c r="P4" s="79" t="s">
         <v>12</v>
-      </c>
-      <c r="O4" s="73"/>
-      <c r="P4" s="69" t="s">
-        <v>13</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1645,35 +1640,35 @@
     </row>
     <row r="5" spans="1:26" ht="20.25" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="83" t="s">
+      <c r="B5" s="103"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="J5" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82" t="s">
+      <c r="K5" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="87" t="s">
+      <c r="L5" s="99"/>
+      <c r="M5" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="88"/>
-      <c r="M5" s="82" t="s">
+      <c r="N5" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="77" t="s">
+      <c r="O5" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="70"/>
+      <c r="P5" s="80"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1687,25 +1682,25 @@
     </row>
     <row r="6" spans="1:26" ht="31.5" customHeight="1" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
       <c r="K6" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="70"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="80"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1719,21 +1714,21 @@
     </row>
     <row r="7" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="136"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="77"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -1747,50 +1742,50 @@
     </row>
     <row r="8" spans="1:26" ht="26.25" customHeight="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="137" t="s">
-        <v>23</v>
+      <c r="B8" s="109" t="s">
+        <v>22</v>
       </c>
-      <c r="C8" s="81"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="14">
         <f ca="1">SUM(INDIRECT("D7"):$D7)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="138"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14">
         <f ca="1">SUM(INDIRECT("G7"):$G7)</f>
         <v>0</v>
       </c>
       <c r="H8" s="14">
-        <f t="shared" ref="H8:O8" si="0">SUM(H7)</f>
+        <f ca="1">SUM(INDIRECT("H7"):$H7)</f>
         <v>0</v>
       </c>
       <c r="I8" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">SUM(INDIRECT("I7"):$I7)</f>
         <v>0</v>
       </c>
       <c r="J8" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">SUM(INDIRECT("J7"):$J7)</f>
         <v>0</v>
       </c>
       <c r="K8" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">SUM(INDIRECT("K7"):$K7)</f>
         <v>0</v>
       </c>
       <c r="L8" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">SUM(INDIRECT("L7"):$L7)</f>
         <v>0</v>
       </c>
       <c r="M8" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">SUM(INDIRECT("M7"):$M7)</f>
         <v>0</v>
       </c>
       <c r="N8" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">SUM(INDIRECT("N7"):$N7)</f>
         <v>0</v>
       </c>
       <c r="O8" s="14">
-        <f t="shared" si="0"/>
+        <f ca="1">SUM(INDIRECT("O7"):$O7)</f>
         <v>0</v>
       </c>
       <c r="P8" s="14"/>
@@ -1864,31 +1859,31 @@
     <row r="11" spans="1:26" ht="21.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="100" t="s">
+      <c r="F11" s="113"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="101"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="76" t="s">
+      <c r="I11" s="82"/>
+      <c r="J11" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="73"/>
-      <c r="J11" s="72" t="s">
+      <c r="K11" s="82"/>
+      <c r="L11" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="73"/>
-      <c r="L11" s="74" t="s">
+      <c r="M11" s="82"/>
+      <c r="N11" s="84" t="s">
         <v>28</v>
-      </c>
-      <c r="M11" s="73"/>
-      <c r="N11" s="75" t="s">
-        <v>29</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="1"/>
@@ -1906,34 +1901,34 @@
     <row r="12" spans="1:26" ht="47.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="104" t="s">
+      <c r="C12" s="105"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="117"/>
+      <c r="G12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="24" t="s">
+      <c r="H12" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="I12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="J12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="K12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="L12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="M12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="71"/>
+      <c r="N12" s="85"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1950,43 +1945,43 @@
     <row r="13" spans="1:26" ht="37.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="95"/>
+      <c r="C13" s="106"/>
       <c r="D13" s="27">
         <f ca="1">$D8</f>
         <v>0</v>
       </c>
-      <c r="E13" s="102">
-        <f ca="1">D13+I13</f>
+      <c r="E13" s="114">
+        <f ca="1">$D13+$I13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="103"/>
+      <c r="F13" s="115"/>
       <c r="G13" s="28">
-        <f ca="1">G8</f>
+        <f ca="1">$G8</f>
         <v>0</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="28">
-        <f>I8-H13</f>
+        <f ca="1">$I8-$H13</f>
         <v>0</v>
       </c>
       <c r="J13" s="28">
-        <f>M8</f>
+        <f ca="1">$M8</f>
         <v>0</v>
       </c>
       <c r="K13" s="28">
-        <f>J8</f>
+        <f ca="1">$J8</f>
         <v>0</v>
       </c>
       <c r="L13" s="28">
-        <f>N8</f>
+        <f ca="1">$N8</f>
         <v>0</v>
       </c>
       <c r="M13" s="28">
-        <f>O8</f>
+        <f ca="1">$O8</f>
         <v>0</v>
       </c>
       <c r="N13" s="30">
-        <f>H8</f>
+        <f ca="1">$H8</f>
         <v>0</v>
       </c>
       <c r="O13" s="1"/>
@@ -28874,7 +28869,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -28901,17 +28896,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A1" s="109" t="s">
-        <v>38</v>
+      <c r="A1" s="121" t="s">
+        <v>37</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
       <c r="J1" s="32"/>
       <c r="K1" s="33"/>
       <c r="L1" s="33"/>
@@ -28931,36 +28926,36 @@
       <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A2" s="115" t="s">
-        <v>4</v>
+      <c r="A2" s="127" t="s">
+        <v>3</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="D2" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="119" t="s">
-        <v>6</v>
+      <c r="F2" s="130"/>
+      <c r="G2" s="129" t="s">
+        <v>25</v>
       </c>
-      <c r="E2" s="123" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="117" t="s">
+      <c r="H2" s="130"/>
+      <c r="I2" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="118"/>
-      <c r="I2" s="122" t="s">
+      <c r="J2" s="130"/>
+      <c r="K2" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="118"/>
-      <c r="K2" s="121" t="s">
+      <c r="L2" s="130"/>
+      <c r="M2" s="125" t="s">
         <v>28</v>
-      </c>
-      <c r="L2" s="118"/>
-      <c r="M2" s="113" t="s">
-        <v>29</v>
       </c>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
@@ -28977,35 +28972,35 @@
       <c r="Z2" s="34"/>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A3" s="116"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="120"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="132"/>
       <c r="E3" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="G3" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="H3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="36" t="s">
-        <v>33</v>
+      <c r="I3" s="36" t="s">
+        <v>41</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="J3" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="35" t="s">
-        <v>43</v>
+      <c r="K3" s="36" t="s">
+        <v>35</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="L3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="114"/>
+      <c r="M3" s="126"/>
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
       <c r="P3" s="34"/>
@@ -29025,7 +29020,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="41"/>
@@ -29057,7 +29052,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="41"/>
@@ -29089,7 +29084,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="47"/>
       <c r="D6" s="45"/>
@@ -29121,7 +29116,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
@@ -29153,7 +29148,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="41"/>
@@ -29185,7 +29180,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="56"/>
       <c r="D9" s="57"/>
@@ -29217,7 +29212,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="56"/>
       <c r="D10" s="57"/>
@@ -29245,11 +29240,11 @@
       <c r="Z10" s="34"/>
     </row>
     <row r="11" spans="1:26" ht="24" customHeight="1" thickBot="1">
-      <c r="A11" s="124" t="s">
-        <v>23</v>
+      <c r="A11" s="136" t="s">
+        <v>22</v>
       </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="126"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="59">
         <f ca="1">SUM(INDIRECT("D4"):$D10)</f>
         <v>0</v>

--- a/SplitExcelApp/templates/temp.xlsx
+++ b/SplitExcelApp/templates/temp.xlsx
@@ -1475,7 +1475,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
